--- a/MKT-6352/Lesson 5/Lesson 5 practice.xlsx
+++ b/MKT-6352/Lesson 5/Lesson 5 practice.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/MKT-6352/Lesson 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{73836B5B-660E-4C2D-B172-27A817107896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3E66C9C-9B75-44BE-9C77-E1ABC893B14B}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{73836B5B-660E-4C2D-B172-27A817107896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B4EFAF-D079-4EED-9BD0-CDE90D62F795}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30975" yWindow="1320" windowWidth="14400" windowHeight="7275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Outliers" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Practice problem 8" sheetId="4" r:id="rId4"/>
+    <sheet name="ROI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Cost</t>
   </si>
@@ -114,13 +115,32 @@
   </si>
   <si>
     <t>Cancel rate</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>ROI $</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue 2021 for Mexico</t>
+  </si>
+  <si>
+    <t>Revenue 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -166,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -174,6 +194,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -457,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -820,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25761F8-CB29-43DF-ADF8-A0C12D3B32B5}">
   <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,146 +858,329 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
-        <v>5248822</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11">
+        <v>8346234</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <f>D3*(1+0.33)</f>
+        <v>11100491.220000001</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12">
+        <f>D3</f>
+        <v>8346234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12">
+        <f>(1-J3)*D6</f>
+        <v>6660294.7319999998</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12">
+        <f>(1-J3)*F6</f>
+        <v>5007740.3999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12">
+        <f>(1-J4)*D7</f>
+        <v>5994265.2588</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12">
+        <f>(1-J4)*F7</f>
+        <v>4506966.3599999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
+        <f>D8-D9</f>
+        <v>5494265.2588</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12">
+        <f>F8-F9</f>
+        <v>4506966.3599999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12">
+        <f>D10-F10</f>
+        <v>987298.89880000055</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD289E3-FEFB-455A-8F3B-4BD74E969719}">
+  <dimension ref="D4:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7">
+        <v>1290920</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6">
-        <f>D3*(1+0.25)</f>
-        <v>6561027.5</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6">
-        <f>D3</f>
-        <v>5248822</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6">
-        <f>(1-J3)*D6</f>
-        <v>5904924.75</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6">
-        <f>(1-J3)*F6</f>
-        <v>4723939.8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6">
-        <f>(1-J4)*D7</f>
-        <v>3542954.85</v>
+        <f>F4*(1+0.25)</f>
+        <v>1613650</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6">
+        <f>F4</f>
+        <v>1290920</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6">
-        <f>(1-J4)*F7</f>
-        <v>2834363.88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+        <f>(1-L4)*F7</f>
+        <v>1581377</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6">
+        <f>(1-L4)*H7</f>
+        <v>1265101.6000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6">
+        <f>(1-L5)*F8</f>
+        <v>1502308.15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
+        <f>(1-L5)*H8</f>
+        <v>1201846.52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6">
-        <f>D8-D9</f>
-        <v>3042954.85</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6">
-        <f>F8-F9</f>
-        <v>2834363.88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6">
-        <f>D10-F10</f>
-        <v>208590.9700000002</v>
-      </c>
+      <c r="F11" s="6">
+        <f>F9-F10</f>
+        <v>2308.1499999999069</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6">
+        <f>H9-H10</f>
+        <v>-298153.48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="6">
+        <f>F11-H11</f>
+        <v>300461.62999999989</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <f>F11/F10</f>
+        <v>1.5387666666666045E-3</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16" si="0">H11/H10</f>
+        <v>-0.19876898666666665</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>